--- a/DDF/Phase2.1/TY_06/Inv Summary (Inv, Rep and P)/TradeCoverage.xlsx
+++ b/DDF/Phase2.1/TY_06/Inv Summary (Inv, Rep and P)/TradeCoverage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20445" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>TC_ID</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>TC_ID_092</t>
+  </si>
+  <si>
+    <t>TC_ID_268</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +976,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
